--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H2">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I2">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J2">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N2">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O2">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P2">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q2">
-        <v>10336.77385349941</v>
+        <v>6727.620122695734</v>
       </c>
       <c r="R2">
-        <v>93030.9646814947</v>
+        <v>60548.5811042616</v>
       </c>
       <c r="S2">
-        <v>0.4219380628539171</v>
+        <v>0.3106150849482502</v>
       </c>
       <c r="T2">
-        <v>0.4219380628539171</v>
+        <v>0.3106150849482503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H3">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I3">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J3">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>53.218373</v>
       </c>
       <c r="O3">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P3">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q3">
-        <v>220.0167635948404</v>
+        <v>151.4214561607627</v>
       </c>
       <c r="R3">
-        <v>1980.150872353563</v>
+        <v>1362.793105446864</v>
       </c>
       <c r="S3">
-        <v>0.008980891750395344</v>
+        <v>0.006991148074739508</v>
       </c>
       <c r="T3">
-        <v>0.008980891750395344</v>
+        <v>0.006991148074739509</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H4">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I4">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J4">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N4">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O4">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P4">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q4">
-        <v>1560.410522586769</v>
+        <v>1122.201294668459</v>
       </c>
       <c r="R4">
-        <v>14043.69470328092</v>
+        <v>10099.81165201613</v>
       </c>
       <c r="S4">
-        <v>0.06369459199634479</v>
+        <v>0.05181217787499094</v>
       </c>
       <c r="T4">
-        <v>0.06369459199634479</v>
+        <v>0.05181217787499094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H5">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I5">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J5">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N5">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O5">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P5">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q5">
-        <v>16.67849576152434</v>
+        <v>9.781985700442668</v>
       </c>
       <c r="R5">
-        <v>150.106461853719</v>
+        <v>88.03787130398401</v>
       </c>
       <c r="S5">
-        <v>0.0006808016014157492</v>
+        <v>0.0004516355358792285</v>
       </c>
       <c r="T5">
-        <v>0.0006808016014157492</v>
+        <v>0.0004516355358792285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.485456</v>
       </c>
       <c r="I6">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J6">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N6">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O6">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P6">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q6">
-        <v>4302.019010097995</v>
+        <v>4068.338914289689</v>
       </c>
       <c r="R6">
-        <v>38718.17109088197</v>
+        <v>36615.05022860719</v>
       </c>
       <c r="S6">
-        <v>0.1756046512391254</v>
+        <v>0.1878357300819192</v>
       </c>
       <c r="T6">
-        <v>0.1756046512391254</v>
+        <v>0.1878357300819192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.485456</v>
       </c>
       <c r="I7">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J7">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>53.218373</v>
       </c>
       <c r="O7">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P7">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q7">
         <v>91.5678637203431</v>
@@ -883,10 +883,10 @@
         <v>824.110773483088</v>
       </c>
       <c r="S7">
-        <v>0.003737720064829822</v>
+        <v>0.004227700026057271</v>
       </c>
       <c r="T7">
-        <v>0.003737720064829823</v>
+        <v>0.004227700026057272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.485456</v>
       </c>
       <c r="I8">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J8">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N8">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O8">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P8">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q8">
-        <v>649.4207793326772</v>
+        <v>678.6196475874417</v>
       </c>
       <c r="R8">
-        <v>5844.787013994095</v>
+        <v>6107.576828286975</v>
       </c>
       <c r="S8">
-        <v>0.02650878789574619</v>
+        <v>0.03133195626962098</v>
       </c>
       <c r="T8">
-        <v>0.0265087878957462</v>
+        <v>0.03133195626962098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>15.485456</v>
       </c>
       <c r="I9">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J9">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N9">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O9">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P9">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q9">
-        <v>6.941353931393778</v>
+        <v>5.915380529569777</v>
       </c>
       <c r="R9">
-        <v>62.472185382544</v>
+        <v>53.238424766128</v>
       </c>
       <c r="S9">
-        <v>0.0002833399930099263</v>
+        <v>0.0002731138786351836</v>
       </c>
       <c r="T9">
-        <v>0.0002833399930099263</v>
+        <v>0.0002731138786351837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H10">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I10">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J10">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N10">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O10">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P10">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q10">
-        <v>3669.936150130341</v>
+        <v>4205.178725156034</v>
       </c>
       <c r="R10">
-        <v>33029.42535117307</v>
+        <v>37846.6085264043</v>
       </c>
       <c r="S10">
-        <v>0.1498035820392195</v>
+        <v>0.1941536417210087</v>
       </c>
       <c r="T10">
-        <v>0.1498035820392195</v>
+        <v>0.1941536417210087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H11">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I11">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J11">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>53.218373</v>
       </c>
       <c r="O11">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P11">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q11">
-        <v>78.11406980506133</v>
+        <v>94.64777653412466</v>
       </c>
       <c r="R11">
-        <v>703.026628245552</v>
+        <v>851.8299888071219</v>
       </c>
       <c r="S11">
-        <v>0.003188547970798954</v>
+        <v>0.004369899996156449</v>
       </c>
       <c r="T11">
-        <v>0.003188547970798954</v>
+        <v>0.004369899996156451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H12">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I12">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J12">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N12">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O12">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P12">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q12">
-        <v>554.003315448976</v>
+        <v>701.4452248518827</v>
       </c>
       <c r="R12">
-        <v>4986.029839040784</v>
+        <v>6313.007023666943</v>
       </c>
       <c r="S12">
-        <v>0.02261393052108352</v>
+        <v>0.0323858161029176</v>
       </c>
       <c r="T12">
-        <v>0.02261393052108352</v>
+        <v>0.03238581610291761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H13">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I13">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J13">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N13">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O13">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P13">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q13">
-        <v>5.921481440197334</v>
+        <v>6.114346144264666</v>
       </c>
       <c r="R13">
-        <v>53.293332961776</v>
+        <v>55.029115298382</v>
       </c>
       <c r="S13">
-        <v>0.000241709690423037</v>
+        <v>0.0002823001466145163</v>
       </c>
       <c r="T13">
-        <v>0.000241709690423037</v>
+        <v>0.0002823001466145163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H14">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I14">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J14">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N14">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O14">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P14">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q14">
-        <v>2561.232234612919</v>
+        <v>3188.007824425433</v>
       </c>
       <c r="R14">
-        <v>23051.09011151627</v>
+        <v>28692.0704198289</v>
       </c>
       <c r="S14">
-        <v>0.1045472584490886</v>
+        <v>0.1471907306209206</v>
       </c>
       <c r="T14">
-        <v>0.1045472584490886</v>
+        <v>0.1471907306209206</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H15">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I15">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J15">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>53.218373</v>
       </c>
       <c r="O15">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P15">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q15">
-        <v>54.515464405129</v>
+        <v>71.75387109000067</v>
       </c>
       <c r="R15">
-        <v>490.639179646161</v>
+        <v>645.784839810006</v>
       </c>
       <c r="S15">
-        <v>0.002225273549821799</v>
+        <v>0.003312885442029937</v>
       </c>
       <c r="T15">
-        <v>0.002225273549821799</v>
+        <v>0.003312885442029938</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H16">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I16">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J16">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N16">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O16">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P16">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q16">
-        <v>386.636467656243</v>
+        <v>531.7759390002346</v>
       </c>
       <c r="R16">
-        <v>3479.728208906187</v>
+        <v>4785.983451002112</v>
       </c>
       <c r="S16">
-        <v>0.0157821622591006</v>
+        <v>0.02455216338817409</v>
       </c>
       <c r="T16">
-        <v>0.0157821622591006</v>
+        <v>0.02455216338817409</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H17">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I17">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J17">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N17">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O17">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P17">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q17">
-        <v>4.132575750877001</v>
+        <v>4.635375717220667</v>
       </c>
       <c r="R17">
-        <v>37.193181757893</v>
+        <v>41.718381454986</v>
       </c>
       <c r="S17">
-        <v>0.0001686881256797356</v>
+        <v>0.0002140158920855692</v>
       </c>
       <c r="T17">
-        <v>0.0001686881256797356</v>
+        <v>0.0002140158920855692</v>
       </c>
     </row>
   </sheetData>
